--- a/auto/new_data/9_2_Non-ferrous_LME-Nickel.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Nickel.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>19575</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>9530</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>16217</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nov 24</t>
+          <t>Dec 24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>14234</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>27315</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>7995</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>24903</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8105</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>18317</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10788</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>19405</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>547</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>6220</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>7835</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/18</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Nickel.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Nickel.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19575</t>
+          <t>5570</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9530</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16217</t>
+          <t>19521</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14234</t>
+          <t>4872</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>27315</t>
+          <t>26330</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7995</t>
+          <t>6154</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24903</t>
+          <t>26057</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8105</t>
+          <t>5223</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18317</t>
+          <t>19041</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10788</t>
+          <t>8054</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19405</t>
+          <t>18728</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6220</t>
+          <t>6208</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7835</t>
+          <t>7976</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/9_2_Non-ferrous_LME-Nickel.xlsx
+++ b/auto/new_data/9_2_Non-ferrous_LME-Nickel.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5570</t>
+          <t>4994</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2955</t>
+          <t>2321</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19521</t>
+          <t>10842</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>541</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dec 24</t>
+          <t>Jan 25</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4872</t>
+          <t>8077</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26330</t>
+          <t>16176</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jan 25</t>
+          <t>Feb 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6154</t>
+          <t>5974</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26057</t>
+          <t>23400</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -561,22 +561,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feb 25</t>
+          <t>Mar 25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>10749</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19041</t>
+          <t>31383</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -586,22 +586,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mar 25</t>
+          <t>Apr 25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8054</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18728</t>
+          <t>12732</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -611,22 +611,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apr 25</t>
+          <t>May 25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>307</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6208</t>
+          <t>8854</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
@@ -636,22 +636,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>May 25</t>
+          <t>Jun 25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>536</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7976</t>
+          <t>10069</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/12/23</t>
         </is>
       </c>
     </row>
